--- a/stock_code.xlsx
+++ b/stock_code.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">GAZP</t>
   </si>
   <si>
-    <t xml:space="preserve">ГАЗПРОМ ао</t>
+    <t xml:space="preserve">Газпром ао</t>
   </si>
   <si>
     <t xml:space="preserve">GMKN</t>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">LKOH</t>
   </si>
   <si>
-    <t xml:space="preserve">ЛУКОЙЛ</t>
+    <t xml:space="preserve">Лукойл</t>
   </si>
   <si>
     <t xml:space="preserve">MVID</t>
@@ -765,10 +765,10 @@
   <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
